--- a/xlsx/nfeature: 512, hamming_tolerance: 32, k_knn: 30.xlsx
+++ b/xlsx/nfeature: 512, hamming_tolerance: 32, k_knn: 30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.671</v>
+        <v>0.344</v>
       </c>
       <c r="C1" t="n">
         <v>0.001</v>
       </c>
       <c r="D1" t="n">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="E1" t="n">
         <v>0.367</v>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.037</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>0.002</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.052</v>
+        <v>0.672</v>
       </c>
       <c r="C3" t="n">
         <v>0.002</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.629</v>
+        <v>0.335</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.631</v>
+        <v>0.335</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.815</v>
+        <v>1.035</v>
       </c>
       <c r="C6" t="n">
         <v>0.003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0.367</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.584</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.667</v>
+        <v>0.633</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.846</v>
+        <v>1.182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.505</v>
+        <v>0.915</v>
       </c>
       <c r="C9" t="n">
         <v>0.003</v>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.906</v>
+        <v>1.06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247</v>
+        <v>0.236</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>0.767</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.969</v>
+        <v>0.649</v>
       </c>
       <c r="C11" t="n">
         <v>0.002</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.343</v>
+        <v>0.923</v>
       </c>
       <c r="C12" t="n">
         <v>0.003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.605</v>
+        <v>0.604</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.925</v>
+        <v>0.667</v>
       </c>
       <c r="C13" t="n">
         <v>0.002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253</v>
+        <v>0.252</v>
       </c>
       <c r="E13" t="n">
         <v>0.967</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.232</v>
+        <v>0.778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
         <v>0.197</v>
@@ -834,25 +834,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.224</v>
+        <v>0.82</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.36</v>
+        <v>0.327</v>
       </c>
       <c r="E15" t="n">
-        <v>0.433</v>
+        <v>0.533</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.987</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.555</v>
+        <v>0.554</v>
       </c>
       <c r="E16" t="n">
         <v>0.433</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.346</v>
+        <v>0.53</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="E17" t="n">
         <v>0.6</v>
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.328</v>
+        <v>0.891</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381</v>
+        <v>0.357</v>
       </c>
       <c r="E18" t="n">
-        <v>0.467</v>
+        <v>0.533</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.783</v>
+        <v>0.457</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="E19" t="n">
         <v>0.333</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.258</v>
+        <v>0.777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276</v>
+        <v>0.272</v>
       </c>
       <c r="E20" t="n">
         <v>0.5</v>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.709</v>
+        <v>0.358</v>
       </c>
       <c r="C21" t="n">
         <v>0.001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.095</v>
+        <v>0.343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.233</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.402</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>0.003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.109</v>
+        <v>0.099</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.401</v>
+        <v>0.906</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.385</v>
+        <v>0.36</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.454</v>
+        <v>1.052</v>
       </c>
       <c r="C24" t="n">
         <v>0.003</v>
       </c>
       <c r="D24" t="n">
-        <v>0.461</v>
+        <v>0.438</v>
       </c>
       <c r="E24" t="n">
-        <v>0.633</v>
+        <v>0.667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.43</v>
+        <v>1.057</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
       <c r="E25" t="n">
         <v>0.5669999999999999</v>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.292</v>
+        <v>0.748</v>
       </c>
       <c r="C26" t="n">
         <v>0.002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>0.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.51</v>
+        <v>1.033</v>
       </c>
       <c r="C27" t="n">
         <v>0.003</v>
       </c>
       <c r="D27" t="n">
-        <v>0.451</v>
+        <v>0.443</v>
       </c>
       <c r="E27" t="n">
         <v>0.633</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.579</v>
+        <v>1.048</v>
       </c>
       <c r="C28" t="n">
         <v>0.003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.491</v>
+        <v>0.465</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7</v>
+        <v>0.733</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.959</v>
+        <v>0.677</v>
       </c>
       <c r="C29" t="n">
         <v>0.002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.331</v>
+        <v>0.317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.633</v>
+        <v>0.667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.854</v>
+        <v>1.03</v>
       </c>
       <c r="C30" t="n">
         <v>0.003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.474</v>
+        <v>0.441</v>
       </c>
       <c r="E30" t="n">
-        <v>0.833</v>
+        <v>0.9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.928</v>
+        <v>0.495</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.956</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.176</v>
+        <v>0.169</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.124</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121</v>
+        <v>0.239</v>
       </c>
       <c r="E33" t="n">
-        <v>0.367</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1385,25 +1385,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.128</v>
+        <v>1.224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168</v>
+        <v>0.497</v>
       </c>
       <c r="E34" t="n">
-        <v>0.667</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1414,71 +1414,71 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.768</v>
+        <v>1.122</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.496</v>
+        <v>0.305</v>
       </c>
       <c r="E35" t="n">
-        <v>0.733</v>
+        <v>0.533</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Gege Ardiyansyah</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.25</v>
+        <v>0.985</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406</v>
+        <v>0.23</v>
       </c>
       <c r="E36" t="n">
-        <v>0.533</v>
+        <v>0.4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.659</v>
+        <v>0.629</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.401</v>
+        <v>0.357</v>
       </c>
       <c r="E37" t="n">
         <v>0.533</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.329</v>
+        <v>0.77</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.393</v>
+        <v>0.385</v>
       </c>
       <c r="E38" t="n">
         <v>0.533</v>
@@ -1526,49 +1526,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.387</v>
+        <v>0.655</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.092</v>
+        <v>0.391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.22</v>
+        <v>1.841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="D40" t="n">
-        <v>0.366</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.533</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1584,24 +1584,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.71</v>
+        <v>1.802</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.018</v>
+        <v>0.076</v>
       </c>
       <c r="E41" t="n">
-        <v>0.233</v>
+        <v>0.533</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,17 +1613,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.317</v>
+        <v>1.375</v>
       </c>
       <c r="C42" t="n">
         <v>0.004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.041</v>
+        <v>0.024</v>
       </c>
       <c r="E42" t="n">
         <v>0.267</v>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.544</v>
+        <v>1.34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D43" t="n">
-        <v>0.186</v>
+        <v>0.04</v>
       </c>
       <c r="E43" t="n">
-        <v>0.367</v>
+        <v>0.233</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,29 +1671,58 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.185</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fanny Yusuf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Salah</t>
+      <c r="B45" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Benar</t>
         </is>
       </c>
     </row>
